--- a/workingfolder/python/tables/NI_Est_sce.xlsx
+++ b/workingfolder/python/tables/NI_Est_sce.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/ExpProject/workingfolder/python/tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765A74B-1678-BF47-99BE-B178294F3281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,8 +25,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,19 +41,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,27 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -164,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,27 +167,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,24 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,16 +376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,45 +391,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3.4</v>
-      </c>
-      <c r="B2">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3.4</v>
-      </c>
-      <c r="B3">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="B4">
-        <v>22.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
